--- a/Data/g18.8.xlsx
+++ b/Data/g18.8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,16 +633,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3503614965544306</v>
+        <v>0.437868572310842</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3612225451485431</v>
+        <v>0.3503614965544306</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3666390800995293</v>
+        <v>0.3612225451485431</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3726691534045127</v>
+        <v>0.3666390800995293</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3747092698845739</v>
+        <v>0.3726691534045127</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3845701839037599</v>
+        <v>0.3747092698845739</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3938944972861022</v>
+        <v>0.3845701839037599</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3959108646721499</v>
+        <v>0.3938944972861022</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3848720541412903</v>
+        <v>0.3959108646721499</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3823243194529024</v>
+        <v>0.3848720541412903</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.461212708609827</v>
+        <v>0.3823243194529024</v>
       </c>
     </row>
     <row r="25">
@@ -803,41 +803,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5051085827123463</v>
+        <v>0.461212708609827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3508172247051144</v>
+        <v>0.5051085827123463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3544037331998646</v>
+        <v>0.4255447605153426</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3693861487987157</v>
+        <v>0.3508172247051144</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3805515506358534</v>
+        <v>0.3544037331998646</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3740550195663847</v>
+        <v>0.3693861487987157</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.4084247536980493</v>
+        <v>0.3805515506358534</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.4097022103705593</v>
+        <v>0.3740550195663847</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.3957755667514992</v>
+        <v>0.4084247536980493</v>
       </c>
     </row>
     <row r="34">
@@ -938,11 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.3769474682607202</v>
+        <v>0.4097022103705593</v>
       </c>
     </row>
     <row r="35">
@@ -953,11 +953,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3722504394017839</v>
+        <v>0.3957755667514992</v>
       </c>
     </row>
     <row r="36">
@@ -968,11 +968,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.4465220154892875</v>
+        <v>0.3769474682607202</v>
       </c>
     </row>
     <row r="37">
@@ -983,11 +983,56 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3722504394017839</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4465220154892875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C39" t="n">
         <v>0.4854828992768239</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3925077107324511</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.8.xlsx
+++ b/Data/g18.8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -648,16 +648,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.3503614965544306</v>
+        <v>0.419111387454922</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3612225451485431</v>
+        <v>0.347069616648288</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3666390800995293</v>
+        <v>0.3595477388953934</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.3726691534045127</v>
+        <v>0.3648096093092802</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.3747092698845739</v>
+        <v>0.3710318727242212</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.3845701839037599</v>
+        <v>0.3734944324065706</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3938944972861022</v>
+        <v>0.3830572454976079</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.3959108646721499</v>
+        <v>0.3934774992976393</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3848720541412903</v>
+        <v>0.3950712898777252</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3823243194529024</v>
+        <v>0.3843314070278013</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.461212708609827</v>
+        <v>0.3817893878851981</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5051085827123463</v>
+        <v>0.4593804467952268</v>
       </c>
     </row>
     <row r="27">
@@ -833,41 +833,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4255447605153426</v>
+        <v>0.5034914401168344</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2010</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3508172247051144</v>
+        <v>0.4237381378316853</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.3544037331998646</v>
+        <v>0.4066781931333738</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2010</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.3693861487987157</v>
+        <v>0.3508172247051144</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.3805515506358534</v>
+        <v>0.3544037331998646</v>
       </c>
     </row>
     <row r="32">
@@ -908,11 +908,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.3740550195663847</v>
+        <v>0.3693861487987157</v>
       </c>
     </row>
     <row r="33">
@@ -923,11 +923,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.4084247536980493</v>
+        <v>0.3805515506358534</v>
       </c>
     </row>
     <row r="34">
@@ -938,11 +938,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.4097022103705593</v>
+        <v>0.3740550195663847</v>
       </c>
     </row>
     <row r="35">
@@ -953,11 +953,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.3957755667514992</v>
+        <v>0.4084247536980493</v>
       </c>
     </row>
     <row r="36">
@@ -968,11 +968,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.3769474682607202</v>
+        <v>0.4097022103705593</v>
       </c>
     </row>
     <row r="37">
@@ -983,11 +983,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.3722504394017839</v>
+        <v>0.3957755667514992</v>
       </c>
     </row>
     <row r="38">
@@ -998,11 +998,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.4465220154892875</v>
+        <v>0.3769474682607202</v>
       </c>
     </row>
     <row r="39">
@@ -1013,11 +1013,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4854828992768239</v>
+        <v>0.3722504394017839</v>
       </c>
     </row>
     <row r="40">
@@ -1028,11 +1028,56 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.4465220154892875</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.4854828992768239</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>01/01/2022</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C42" t="n">
         <v>0.3925077107324511</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3762033889721718</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g18.8.xlsx
+++ b/Data/g18.8.xlsx
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.419111387454922</v>
+        <v>0.4197236473724369</v>
       </c>
     </row>
     <row r="16">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4066781931333738</v>
+        <v>0.4075818796328505</v>
       </c>
     </row>
     <row r="30">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.3762033889721718</v>
+        <v>0.3763440608114983</v>
       </c>
     </row>
   </sheetData>
